--- a/geekshop/optimization_tabel.xlsx
+++ b/geekshop/optimization_tabel.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="10260" windowHeight="4590"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="10260" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="test_1" sheetId="4" r:id="rId1"/>
+    <sheet name="test_2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t xml:space="preserve">Адрес </t>
   </si>
@@ -199,7 +198,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,11 +233,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,30 +551,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -580,16 +582,16 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -597,16 +599,16 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
     </row>
@@ -614,16 +616,16 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
     </row>
@@ -631,16 +633,16 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>25</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>20</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>3</v>
       </c>
     </row>
@@ -648,16 +650,16 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -665,16 +667,16 @@
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>95</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>33</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>92</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>29</v>
       </c>
     </row>
@@ -682,21 +684,21 @@
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>33</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>12</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>26</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -716,7 +718,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -734,7 +736,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
@@ -752,7 +754,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -770,7 +772,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -788,7 +790,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
@@ -806,8 +808,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="9">
@@ -824,7 +826,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
@@ -842,7 +844,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
@@ -860,7 +862,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
@@ -878,7 +880,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
@@ -896,7 +898,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -916,7 +918,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
@@ -934,7 +936,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
@@ -952,7 +954,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
@@ -970,7 +972,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
@@ -988,7 +990,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="6" t="s">
         <v>17</v>
       </c>
@@ -1006,7 +1008,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="8" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1026,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1044,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +1062,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
@@ -1078,7 +1080,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
@@ -1109,24 +1111,490 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="B2" s="1"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7">
+        <v>18435</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19456</v>
+      </c>
+      <c r="E13" s="7">
+        <v>20069</v>
+      </c>
+      <c r="F13" s="7">
+        <v>16907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.9698</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.95730000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7">
+        <v>490.92</v>
+      </c>
+      <c r="D15" s="7">
+        <v>474.01</v>
+      </c>
+      <c r="E15" s="7">
+        <v>484.68</v>
+      </c>
+      <c r="F15" s="7">
+        <v>432.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.42</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3.53</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14"/>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="D17" s="7">
+        <v>41.05</v>
+      </c>
+      <c r="E17" s="7">
+        <v>41.41</v>
+      </c>
+      <c r="F17" s="7">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7">
+        <v>49.64</v>
+      </c>
+      <c r="D19" s="7">
+        <v>99.25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>146.18</v>
+      </c>
+      <c r="F19" s="7">
+        <v>191.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>18385</v>
+      </c>
+      <c r="D20" s="7">
+        <v>19356</v>
+      </c>
+      <c r="E20" s="7">
+        <v>19919</v>
+      </c>
+      <c r="F20" s="7">
+        <v>16707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>700</v>
+      </c>
+      <c r="D21" s="7">
+        <v>600</v>
+      </c>
+      <c r="E21" s="7">
+        <v>626</v>
+      </c>
+      <c r="F21" s="7">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7">
+        <v>20.43</v>
+      </c>
+      <c r="D22" s="7">
+        <v>41.35</v>
+      </c>
+      <c r="E22" s="7">
+        <v>60.04</v>
+      </c>
+      <c r="F22" s="7">
+        <v>60.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7">
+        <v>18202</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19304</v>
+      </c>
+      <c r="E25" s="7">
+        <v>20550</v>
+      </c>
+      <c r="F25" s="7">
+        <v>17235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.95850000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="7">
+        <v>472.46</v>
+      </c>
+      <c r="D27" s="7">
+        <v>461.84</v>
+      </c>
+      <c r="E27" s="7">
+        <v>484.04</v>
+      </c>
+      <c r="F27" s="7">
+        <v>432.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.29</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3.42</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="7">
+        <v>38.53</v>
+      </c>
+      <c r="D29" s="7">
+        <v>41.8</v>
+      </c>
+      <c r="E29" s="7">
+        <v>42.46</v>
+      </c>
+      <c r="F29" s="7">
+        <v>39.83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1.23</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="14"/>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7">
+        <v>49.69</v>
+      </c>
+      <c r="D31" s="7">
+        <v>99.19</v>
+      </c>
+      <c r="E31" s="7">
+        <v>145.15</v>
+      </c>
+      <c r="F31" s="7">
+        <v>190.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="14"/>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7">
+        <v>18152</v>
+      </c>
+      <c r="D32" s="7">
+        <v>19204</v>
+      </c>
+      <c r="E32" s="7">
+        <v>20400</v>
+      </c>
+      <c r="F32" s="7">
+        <v>17035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14"/>
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="7">
+        <v>700</v>
+      </c>
+      <c r="D33" s="7">
+        <v>600</v>
+      </c>
+      <c r="E33" s="7">
+        <v>600</v>
+      </c>
+      <c r="F33" s="7">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14"/>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>17.68</v>
+      </c>
+      <c r="D34" s="7">
+        <v>36.369999999999997</v>
+      </c>
+      <c r="E34" s="7">
+        <v>55.71</v>
+      </c>
+      <c r="F34" s="7">
+        <v>60.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="A24:A34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>